--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam2-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam2-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Adam2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.375566</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N2">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O2">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P2">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q2">
-        <v>0.3147460073688889</v>
+        <v>0.3282193124302222</v>
       </c>
       <c r="R2">
-        <v>2.83271406632</v>
+        <v>2.953973811872</v>
       </c>
       <c r="S2">
-        <v>0.1024996538225213</v>
+        <v>0.04842838374866149</v>
       </c>
       <c r="T2">
-        <v>0.1046348067646136</v>
+        <v>0.05582068074148397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.375566</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P3">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q3">
         <v>0.6187411041513333</v>
@@ -638,10 +638,10 @@
         <v>5.568669937362</v>
       </c>
       <c r="S3">
-        <v>0.2014981842389055</v>
+        <v>0.09129454147912648</v>
       </c>
       <c r="T3">
-        <v>0.2056955588139348</v>
+        <v>0.1052300956355443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.375566</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N4">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O4">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P4">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q4">
-        <v>1.025698871720444</v>
+        <v>1.389286277609556</v>
       </c>
       <c r="R4">
-        <v>9.231289845484</v>
+        <v>12.503576498486</v>
       </c>
       <c r="S4">
-        <v>0.3340273643385006</v>
+        <v>0.2049875995737716</v>
       </c>
       <c r="T4">
-        <v>0.3409854318354075</v>
+        <v>0.2362777046443743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.375566</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N5">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O5">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P5">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q5">
-        <v>0.1879801095556667</v>
+        <v>0.06153755320366667</v>
       </c>
       <c r="R5">
-        <v>1.127880657334</v>
+        <v>0.369225319222</v>
       </c>
       <c r="S5">
-        <v>0.06121728537891535</v>
+        <v>0.009079795516707782</v>
       </c>
       <c r="T5">
-        <v>0.04166166152696217</v>
+        <v>0.006977180563731025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.375566</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N6">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O6">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P6">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q6">
-        <v>0.9235370328344443</v>
+        <v>1.774203203336667</v>
       </c>
       <c r="R6">
-        <v>8.311833295509999</v>
+        <v>15.96782883003</v>
       </c>
       <c r="S6">
-        <v>0.3007575122211573</v>
+        <v>0.2617816512474693</v>
       </c>
       <c r="T6">
-        <v>0.3070225410590817</v>
+        <v>0.3017410214245971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.078181</v>
+      </c>
+      <c r="H7">
+        <v>0.156362</v>
+      </c>
+      <c r="I7">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J7">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.621797333333333</v>
+      </c>
+      <c r="N7">
+        <v>7.865392</v>
+      </c>
+      <c r="O7">
+        <v>0.07867217155043885</v>
+      </c>
+      <c r="P7">
+        <v>0.07906089226781998</v>
+      </c>
+      <c r="Q7">
+        <v>0.2049747373173333</v>
+      </c>
+      <c r="R7">
+        <v>1.229848423904</v>
+      </c>
+      <c r="S7">
+        <v>0.03024378780177735</v>
+      </c>
+      <c r="T7">
+        <v>0.02324021152633602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.078181</v>
+      </c>
+      <c r="H8">
+        <v>0.156362</v>
+      </c>
+      <c r="I8">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J8">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.942469</v>
+      </c>
+      <c r="N8">
+        <v>14.827407</v>
+      </c>
+      <c r="O8">
+        <v>0.148308476825081</v>
+      </c>
+      <c r="P8">
+        <v>0.1490412718702539</v>
+      </c>
+      <c r="Q8">
+        <v>0.386407168889</v>
+      </c>
+      <c r="R8">
+        <v>2.318443013334</v>
+      </c>
+      <c r="S8">
+        <v>0.05701393534595454</v>
+      </c>
+      <c r="T8">
+        <v>0.04381117623470966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.078181</v>
+      </c>
+      <c r="H9">
+        <v>0.156362</v>
+      </c>
+      <c r="I9">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J9">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.09754033333333</v>
+      </c>
+      <c r="N9">
+        <v>33.292621</v>
+      </c>
+      <c r="O9">
+        <v>0.3330034651388949</v>
+      </c>
+      <c r="P9">
+        <v>0.3346488416844782</v>
+      </c>
+      <c r="Q9">
+        <v>0.8676168008003333</v>
+      </c>
+      <c r="R9">
+        <v>5.205700804801999</v>
+      </c>
+      <c r="S9">
+        <v>0.1280158655651233</v>
+      </c>
+      <c r="T9">
+        <v>0.09837113704010389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.078181</v>
+      </c>
+      <c r="H10">
+        <v>0.156362</v>
+      </c>
+      <c r="I10">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J10">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4915585</v>
+      </c>
+      <c r="N10">
+        <v>0.983117</v>
+      </c>
+      <c r="O10">
+        <v>0.01475017696730553</v>
+      </c>
+      <c r="P10">
+        <v>0.009882038584175128</v>
+      </c>
+      <c r="Q10">
+        <v>0.0384305350885</v>
+      </c>
+      <c r="R10">
+        <v>0.153722140354</v>
+      </c>
+      <c r="S10">
+        <v>0.005670381450597747</v>
+      </c>
+      <c r="T10">
+        <v>0.002904858020444104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.078181</v>
+      </c>
+      <c r="H11">
+        <v>0.156362</v>
+      </c>
+      <c r="I11">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J11">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.172235</v>
+      </c>
+      <c r="N11">
+        <v>42.516705</v>
+      </c>
+      <c r="O11">
+        <v>0.4252657095182797</v>
+      </c>
+      <c r="P11">
+        <v>0.4273669555932728</v>
+      </c>
+      <c r="Q11">
+        <v>1.107999504535</v>
+      </c>
+      <c r="R11">
+        <v>6.647997027210001</v>
+      </c>
+      <c r="S11">
+        <v>0.1634840582708104</v>
+      </c>
+      <c r="T11">
+        <v>0.1256259341686757</v>
       </c>
     </row>
   </sheetData>
